--- a/libros_contables/ROBERTO ORLANDO MARROQUIN GONZALEZ_1_2020_DIARIO_MAYOR.xlsx
+++ b/libros_contables/ROBERTO ORLANDO MARROQUIN GONZALEZ_1_2020_DIARIO_MAYOR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="153">
   <si>
     <t>ROBERTO ORLANDO MARROQUIN GONZALEZ</t>
   </si>
@@ -73,9 +73,6 @@
     <t>EFECTIVO Y EQUIVALENTES</t>
   </si>
   <si>
-    <t>$6200.00</t>
-  </si>
-  <si>
     <t>01/01/2020</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>$7500.00</t>
-  </si>
-  <si>
-    <t>$5950.00</t>
   </si>
   <si>
     <t>02/01/2020</t>
@@ -510,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -533,15 +527,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,16 +922,16 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -918,16 +942,16 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -938,1372 +962,1324 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="35" customHeight="1">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="35" customHeight="1">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="35" customHeight="1">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="35" customHeight="1">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="35" customHeight="1">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
         <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="35" customHeight="1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="35" customHeight="1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="35" customHeight="1">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="35" customHeight="1">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="35" customHeight="1">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="35" customHeight="1">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>54</v>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="35" customHeight="1">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>54</v>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="35" customHeight="1">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>59</v>
+      <c r="G25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="35" customHeight="1">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="35" customHeight="1">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="35" customHeight="1">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="35" customHeight="1">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="35" customHeight="1">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="35" customHeight="1">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="35" customHeight="1">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="35" customHeight="1">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="35" customHeight="1">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35" customHeight="1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="35" customHeight="1">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="35" customHeight="1">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="35" customHeight="1">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="35" customHeight="1">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35" customHeight="1">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>90</v>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="35" customHeight="1">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>90</v>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="35" customHeight="1">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
       <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
-      </c>
-      <c r="H45" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="35" customHeight="1">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="35" customHeight="1">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="35" customHeight="1">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="35" customHeight="1">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="35" customHeight="1">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="35" customHeight="1">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="35" customHeight="1">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="35" customHeight="1">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="35" customHeight="1">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="35" customHeight="1">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="35" customHeight="1">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="35" customHeight="1">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="35" customHeight="1">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="35" customHeight="1">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="35" customHeight="1">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="35" customHeight="1">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="35" customHeight="1">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="35" customHeight="1">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="35" customHeight="1">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="35" customHeight="1">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="35" customHeight="1">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="35" customHeight="1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="35" customHeight="1">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="35" customHeight="1">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="35" customHeight="1">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="35" customHeight="1">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="35" customHeight="1">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="35" customHeight="1">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="35" customHeight="1">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="35" customHeight="1">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>9</v>
       </c>
     </row>
